--- a/Project/Template_susan.xlsx
+++ b/Project/Template_susan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connecthkuhk-my.sharepoint.com/personal/susan823_connect_hku_hk/Documents/ThinkPad/Year 3 Sem2_Northwestern/CS130/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive - connect.hku.hk\ThinkPad\Year 3 Sem2_Northwestern\CS130\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2147AF7-B7EE-4414-8721-C94D05F6719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4510F0A0-7544-444D-AA77-43A2B67F971D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B560A113-C08E-4805-A4EE-F381BFBAF1B1}"/>
   </bookViews>
@@ -140,12 +140,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +148,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -478,36 +478,36 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:J15"/>
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="3" customWidth="1"/>
-    <col min="2" max="20" width="8.6328125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="2.6328125" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
+    <col min="2" max="20" width="8.6328125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="2.6328125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:18" s="3" customFormat="1" ht="10" customHeight="1"/>
+    <row r="1" spans="4:18" s="1" customFormat="1" ht="10" customHeight="1"/>
     <row r="2" spans="4:18" ht="25" customHeight="1">
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="4:18" ht="25" customHeight="1">
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="4:18" ht="20" customHeight="1">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7">
@@ -530,7 +530,7 @@
       </c>
     </row>
     <row r="5" spans="4:18" ht="20" customHeight="1">
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -540,10 +540,10 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="4:18" ht="20" customHeight="1">
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -553,133 +553,126 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="R6" s="5"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="4:18" ht="20" customHeight="1"/>
     <row r="8" spans="4:18" ht="20" customHeight="1">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="P8" s="5" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="P8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="4:18" ht="20" customHeight="1">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="4:18" ht="20" customHeight="1"/>
     <row r="11" spans="4:18" ht="20" customHeight="1">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="P11" s="5" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="4:18" ht="20" customHeight="1">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="4:18" ht="20" customHeight="1"/>
     <row r="14" spans="4:18" ht="20" customHeight="1">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="P14" s="5" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="4:18" ht="20" customHeight="1">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
     <row r="16" spans="4:18" ht="20" customHeight="1"/>
-    <row r="17" s="3" customFormat="1" ht="10" customHeight="1"/>
+    <row r="17" s="1" customFormat="1" ht="10" customHeight="1"/>
     <row r="18" ht="20" customHeight="1"/>
     <row r="19" ht="20" customHeight="1"/>
     <row r="20" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="L14:N15"/>
-    <mergeCell ref="P14:R15"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="P8:R9"/>
     <mergeCell ref="I2:M3"/>
     <mergeCell ref="D11:F12"/>
     <mergeCell ref="H11:J12"/>
@@ -690,6 +683,13 @@
     <mergeCell ref="F4:H6"/>
     <mergeCell ref="J4:L6"/>
     <mergeCell ref="N4:P6"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="P14:R15"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="P8:R9"/>
     <mergeCell ref="D14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
